--- a/Notes/KHADAS/imx477_22_pinout.xlsx
+++ b/Notes/KHADAS/imx477_22_pinout.xlsx
@@ -106,6 +106,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -126,6 +127,7 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -225,11 +227,11 @@
       <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="3.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="6.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="6.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.39"/>
   </cols>
